--- a/02_Inventario_Contenedores.xlsx
+++ b/02_Inventario_Contenedores.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,11 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,20 +481,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Costo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Bodega</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Última Actualización</t>
         </is>
@@ -530,18 +536,23 @@
           <t>Transparente</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>florero-vidrio-grande.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3500</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>15</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
@@ -578,18 +589,23 @@
           <t>Transparente</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>florero-vidrio-mediano.jpg</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2500</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
@@ -626,18 +642,23 @@
           <t>Transparente</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>florero-vidrio-pequeno.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1500</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>30</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Bodega 2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
@@ -674,18 +695,23 @@
           <t>Blanco</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>florero-ceramica-blanco.jpg</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>2025-10-18</t>
         </is>
@@ -722,18 +748,23 @@
           <t>Negro</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>florero-ceramica-negro.jpg</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>18</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>2025-10-18</t>
         </is>
@@ -770,18 +801,23 @@
           <t>Terracota</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>macetero-terracota-grande.jpg</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Bodega 2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>2025-10-19</t>
         </is>
@@ -818,18 +854,23 @@
           <t>Terracota</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>macetero-terracota-mediano.jpg</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3500</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>15</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Bodega 2</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>2025-10-19</t>
         </is>
@@ -866,18 +907,23 @@
           <t>Terracota</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>macetero-terracota-pequeno.jpg</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>25</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Bodega 2</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2025-10-19</t>
         </is>
@@ -914,18 +960,23 @@
           <t>Blanco</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>macetero-plastico-blanco.jpg</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1500</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>30</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>2025-10-20</t>
         </is>
@@ -962,18 +1013,23 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>canasto-rectangular-grande.jpg</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4500</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>8</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
@@ -1010,18 +1066,23 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>canasto-rectangular-mediano.jpg</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>12</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
@@ -1058,18 +1119,23 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>canasto-redondo-pequeno.jpg</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2500</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>15</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Bodega 2</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
@@ -1106,18 +1172,23 @@
           <t>Transparente</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>florero-burbuja.jpg</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>20</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
@@ -1154,18 +1225,23 @@
           <t>Gris</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>macetero-ceramica-gris.jpg</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Bodega 2</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>2025-10-21</t>
         </is>
@@ -1202,18 +1278,23 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>canasto-ovalado.jpg</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>3500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>10</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Bodega 1</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>2025-10-16</t>
         </is>
